--- a/data/LESP_trend_data.xlsx
+++ b/data/LESP_trend_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://007gc-my.sharepoint.com/personal/david_iles_ec_gc_ca/Documents/Iles/Projects/Seabirds/Petrel_Puffin_Trend/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="134" documentId="13_ncr:1_{A1D13DFD-A7AF-4F51-B76D-D9E2DFCAE667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8F63739-4A6B-4E81-872A-10EB4521C95A}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{A1D13DFD-A7AF-4F51-B76D-D9E2DFCAE667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7C9C2DF-03D3-4251-ACF5-05481F98B3B6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="43">
   <si>
     <t>Country</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Cannell and Maddox (1983)</t>
   </si>
   <si>
-    <t>d'Entremont (2020)</t>
-  </si>
-  <si>
     <t>Little White Island, NS</t>
   </si>
   <si>
@@ -162,13 +159,19 @@
   </si>
   <si>
     <t>Machias Seal Island, NB</t>
+  </si>
+  <si>
+    <t>Bond et al. (2023)</t>
+  </si>
+  <si>
+    <t>d'Entremont et al. (2020)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,19 +513,19 @@
   <dimension ref="A1:K79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.85546875" customWidth="1"/>
-    <col min="4" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="83.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" customWidth="1"/>
+    <col min="4" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="9" width="16.54296875" customWidth="1"/>
+    <col min="10" max="10" width="83.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="30">
+    <row r="1" spans="1:11" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -557,7 +560,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -587,7 +590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -617,7 +620,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -647,7 +650,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -677,7 +680,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -712,7 +715,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -742,7 +745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -772,7 +775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -802,7 +805,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -832,7 +835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -862,7 +865,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -882,7 +885,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -902,7 +905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -932,7 +935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="4" customFormat="1">
+    <row r="15" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -951,7 +954,7 @@
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -989,7 +992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>11</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>11</v>
       </c>
@@ -1077,7 +1080,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -1107,7 +1110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1137,7 +1140,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>11</v>
       </c>
@@ -1172,7 +1175,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>11</v>
       </c>
@@ -1192,7 +1195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1222,7 +1225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>11</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>11</v>
       </c>
@@ -1282,7 +1285,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1337,7 +1340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>11</v>
       </c>
@@ -1367,7 +1370,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>11</v>
       </c>
@@ -1397,7 +1400,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -1427,7 +1430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>11</v>
       </c>
@@ -1484,10 +1487,10 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>11</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -1542,7 +1545,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -1569,10 +1572,10 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>11</v>
       </c>
@@ -1599,15 +1602,15 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" s="4" customFormat="1">
-      <c r="A38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>35</v>
       </c>
       <c r="C38" s="5">
         <v>1971</v>
@@ -1622,12 +1625,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="4" customFormat="1">
+    <row r="39" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="5">
         <v>2017</v>
@@ -1642,12 +1645,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40">
         <v>1974</v>
@@ -1662,12 +1665,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41">
         <v>1975</v>
@@ -1689,12 +1692,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C42">
         <v>1977</v>
@@ -1716,12 +1719,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43">
         <v>2001</v>
@@ -1746,12 +1749,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>11</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C44">
         <v>2006</v>
@@ -1766,15 +1769,15 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>11</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C45">
         <v>2016</v>
@@ -1792,12 +1795,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46">
         <v>1973</v>
@@ -1816,15 +1819,15 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47" t="s">
-        <v>11</v>
-      </c>
-      <c r="B47" t="s">
-        <v>38</v>
       </c>
       <c r="C47">
         <v>1979</v>
@@ -1843,15 +1846,15 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48" t="s">
-        <v>11</v>
-      </c>
-      <c r="B48" t="s">
-        <v>38</v>
       </c>
       <c r="C48">
         <v>1984</v>
@@ -1876,12 +1879,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="1:10">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C49">
         <v>2001</v>
@@ -1896,15 +1899,15 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C50">
         <v>2018</v>
@@ -1922,12 +1925,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C51">
         <v>1979</v>
@@ -1949,12 +1952,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C52">
         <v>1984</v>
@@ -1965,12 +1968,12 @@
       <c r="E52" s="1"/>
       <c r="H52" s="1"/>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C53">
         <v>2018</v>
@@ -1984,12 +1987,12 @@
       </c>
       <c r="H53" s="1"/>
     </row>
-    <row r="54" spans="1:10" s="4" customFormat="1">
+    <row r="54" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C54" s="5">
         <v>1966</v>
@@ -1999,12 +2002,12 @@
       </c>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:10" s="4" customFormat="1">
+    <row r="55" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C55" s="5">
         <v>1971</v>
@@ -2014,12 +2017,12 @@
       </c>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:10" s="4" customFormat="1">
+    <row r="56" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" s="5">
         <v>1973</v>
@@ -2029,12 +2032,12 @@
       </c>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:10" s="4" customFormat="1">
+    <row r="57" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C57" s="5">
         <v>1974</v>
@@ -2044,12 +2047,12 @@
       </c>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:10" s="4" customFormat="1">
+    <row r="58" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C58" s="5">
         <v>1975</v>
@@ -2059,12 +2062,12 @@
       </c>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:10" s="4" customFormat="1">
+    <row r="59" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C59" s="5">
         <v>1976</v>
@@ -2074,12 +2077,12 @@
       </c>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:10" s="4" customFormat="1">
+    <row r="60" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C60" s="5">
         <v>1980</v>
@@ -2089,12 +2092,12 @@
       </c>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:10" s="4" customFormat="1">
+    <row r="61" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C61" s="5">
         <v>1981</v>
@@ -2104,12 +2107,12 @@
       </c>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:10" s="4" customFormat="1">
+    <row r="62" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C62" s="5">
         <v>1987</v>
@@ -2119,12 +2122,12 @@
       </c>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:10" s="4" customFormat="1">
+    <row r="63" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C63" s="5">
         <v>1992</v>
@@ -2134,12 +2137,12 @@
       </c>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:10" s="4" customFormat="1">
+    <row r="64" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C64" s="5">
         <v>1998</v>
@@ -2149,12 +2152,12 @@
       </c>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:9" s="4" customFormat="1">
+    <row r="65" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C65" s="5">
         <v>1999</v>
@@ -2164,12 +2167,12 @@
       </c>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:9" s="4" customFormat="1">
+    <row r="66" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C66" s="5">
         <v>2006</v>
@@ -2179,12 +2182,12 @@
       </c>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:9" s="4" customFormat="1">
+    <row r="67" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C67" s="5">
         <v>2017</v>
@@ -2194,41 +2197,41 @@
       </c>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H68" s="1"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H69" s="1"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H70" s="1"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H71" s="1"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H72" s="1"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H73" s="1"/>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H74" s="1"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H75" s="1"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H76" s="1"/>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H77" s="1"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
